--- a/output/Enterprise_Report.xlsx
+++ b/output/Enterprise_Report.xlsx
@@ -407,7 +407,7 @@
     <numFmt numFmtId="164" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,27 +418,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,19 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FF217346"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,12 +477,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,6 +773,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -940,6 +911,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1003,7 +977,7 @@
       <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H2" s="4">
@@ -1029,7 +1003,7 @@
       <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H3" s="4">
@@ -1055,7 +1029,7 @@
       <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H4" s="4">
@@ -1081,7 +1055,7 @@
       <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="4">
@@ -1107,7 +1081,7 @@
       <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="4">
@@ -1133,7 +1107,7 @@
       <c r="F7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="4">
@@ -1159,7 +1133,7 @@
       <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="4">
@@ -1185,7 +1159,7 @@
       <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H9" s="4">
@@ -1211,7 +1185,7 @@
       <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H10" s="4">
@@ -1237,7 +1211,7 @@
       <c r="F11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H11" s="4">
@@ -1263,7 +1237,7 @@
       <c r="F12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H12" s="4">
@@ -1289,7 +1263,7 @@
       <c r="F13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H13" s="4">
@@ -1315,7 +1289,7 @@
       <c r="F14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H14" s="4">
@@ -1341,7 +1315,7 @@
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H15" s="4">
@@ -1367,7 +1341,7 @@
       <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H16" s="4">
@@ -1393,7 +1367,7 @@
       <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H17" s="4">
@@ -1419,7 +1393,7 @@
       <c r="F18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H18" s="4">
@@ -1445,7 +1419,7 @@
       <c r="F19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H19" s="4">
@@ -1471,7 +1445,7 @@
       <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H20" s="4">
@@ -1497,7 +1471,7 @@
       <c r="F21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H21" s="4">
@@ -1523,7 +1497,7 @@
       <c r="F22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H22" s="4">
@@ -1549,7 +1523,7 @@
       <c r="F23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H23" s="4">
@@ -1575,7 +1549,7 @@
       <c r="F24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H24" s="4">
@@ -1601,7 +1575,7 @@
       <c r="F25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H25" s="4">
@@ -1627,7 +1601,7 @@
       <c r="F26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H26" s="4">
@@ -1653,7 +1627,7 @@
       <c r="F27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H27" s="4">
@@ -1679,7 +1653,7 @@
       <c r="F28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H28" s="4">
@@ -1705,7 +1679,7 @@
       <c r="F29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H29" s="4">
@@ -1731,7 +1705,7 @@
       <c r="F30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H30" s="4">
@@ -1757,7 +1731,7 @@
       <c r="F31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H31" s="4">
@@ -1783,7 +1757,7 @@
       <c r="F32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H32" s="4">
@@ -1809,7 +1783,7 @@
       <c r="F33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H33" s="4">
@@ -1835,7 +1809,7 @@
       <c r="F34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H34" s="4">
@@ -1861,7 +1835,7 @@
       <c r="F35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H35" s="4">
@@ -1887,7 +1861,7 @@
       <c r="F36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H36" s="4">
@@ -1913,7 +1887,7 @@
       <c r="F37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H37" s="4">
@@ -1939,7 +1913,7 @@
       <c r="F38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H38" s="4">
@@ -1965,7 +1939,7 @@
       <c r="F39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H39" s="4">
@@ -1991,7 +1965,7 @@
       <c r="F40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H40" s="4">
@@ -2017,7 +1991,7 @@
       <c r="F41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H41" s="4">
@@ -2043,7 +2017,7 @@
       <c r="F42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H42" s="4">
@@ -2069,7 +2043,7 @@
       <c r="F43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H43" s="4">
@@ -2095,7 +2069,7 @@
       <c r="F44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="4">
@@ -2121,7 +2095,7 @@
       <c r="F45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H45" s="4">
@@ -2147,7 +2121,7 @@
       <c r="F46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H46" s="4">
@@ -2173,7 +2147,7 @@
       <c r="F47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H47" s="4">
@@ -2199,7 +2173,7 @@
       <c r="F48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H48" s="4">
@@ -2225,7 +2199,7 @@
       <c r="F49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H49" s="4">
@@ -2251,7 +2225,7 @@
       <c r="F50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H50" s="4">
@@ -2277,7 +2251,7 @@
       <c r="F51" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H51" s="4">
@@ -2303,7 +2277,7 @@
       <c r="F52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H52" s="4">
@@ -2329,7 +2303,7 @@
       <c r="F53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H53" s="4">
@@ -2355,7 +2329,7 @@
       <c r="F54" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H54" s="4">
@@ -2381,7 +2355,7 @@
       <c r="F55" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H55" s="4">
@@ -2407,7 +2381,7 @@
       <c r="F56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H56" s="4">
@@ -2433,7 +2407,7 @@
       <c r="F57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H57" s="4">
@@ -2459,7 +2433,7 @@
       <c r="F58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H58" s="4">
@@ -2485,7 +2459,7 @@
       <c r="F59" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H59" s="4">
@@ -2511,7 +2485,7 @@
       <c r="F60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H60" s="4">
@@ -2537,7 +2511,7 @@
       <c r="F61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H61" s="4">
@@ -2563,7 +2537,7 @@
       <c r="F62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H62" s="4">
@@ -2589,7 +2563,7 @@
       <c r="F63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H63" s="4">
@@ -2615,7 +2589,7 @@
       <c r="F64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H64" s="4">
@@ -2641,7 +2615,7 @@
       <c r="F65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H65" s="4">
@@ -2667,7 +2641,7 @@
       <c r="F66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H66" s="4">
@@ -2693,7 +2667,7 @@
       <c r="F67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H67" s="4">
@@ -2719,7 +2693,7 @@
       <c r="F68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H68" s="4">
@@ -2745,7 +2719,7 @@
       <c r="F69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H69" s="4">
@@ -2771,7 +2745,7 @@
       <c r="F70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H70" s="4">
@@ -2797,7 +2771,7 @@
       <c r="F71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H71" s="4">
@@ -2823,7 +2797,7 @@
       <c r="F72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H72" s="4">
@@ -2849,7 +2823,7 @@
       <c r="F73" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H73" s="4">
@@ -2875,7 +2849,7 @@
       <c r="F74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H74" s="4">
@@ -2901,7 +2875,7 @@
       <c r="F75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H75" s="4">
@@ -2927,7 +2901,7 @@
       <c r="F76" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H76" s="4">
@@ -2953,7 +2927,7 @@
       <c r="F77" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H77" s="4">
@@ -2979,7 +2953,7 @@
       <c r="F78" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H78" s="4">
@@ -3005,7 +2979,7 @@
       <c r="F79" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H79" s="4">
@@ -3031,7 +3005,7 @@
       <c r="F80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H80" s="4">
@@ -3057,7 +3031,7 @@
       <c r="F81" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H81" s="4">
@@ -3083,7 +3057,7 @@
       <c r="F82" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H82" s="4">
@@ -3109,7 +3083,7 @@
       <c r="F83" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H83" s="4">
@@ -3135,7 +3109,7 @@
       <c r="F84" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H84" s="4">
@@ -3161,7 +3135,7 @@
       <c r="F85" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H85" s="4">
@@ -3187,7 +3161,7 @@
       <c r="F86" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H86" s="4">
@@ -3213,7 +3187,7 @@
       <c r="F87" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H87" s="4">
@@ -3239,7 +3213,7 @@
       <c r="F88" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H88" s="4">
@@ -3265,7 +3239,7 @@
       <c r="F89" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H89" s="4">
@@ -3291,7 +3265,7 @@
       <c r="F90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H90" s="4">
@@ -3317,7 +3291,7 @@
       <c r="F91" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H91" s="4">
@@ -3343,7 +3317,7 @@
       <c r="F92" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H92" s="4">
@@ -3369,7 +3343,7 @@
       <c r="F93" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H93" s="4">
@@ -3395,7 +3369,7 @@
       <c r="F94" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H94" s="4">
@@ -3421,7 +3395,7 @@
       <c r="F95" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H95" s="4">
@@ -3447,7 +3421,7 @@
       <c r="F96" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H96" s="4">
@@ -3473,7 +3447,7 @@
       <c r="F97" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H97" s="4">
@@ -3499,7 +3473,7 @@
       <c r="F98" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H98" s="4">
@@ -3525,7 +3499,7 @@
       <c r="F99" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H99" s="4">
@@ -3551,7 +3525,7 @@
       <c r="F100" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H100" s="4">
@@ -3577,7 +3551,7 @@
       <c r="F101" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H101" s="4">
